--- a/sdizo3/wyniki_plecak.xlsx
+++ b/sdizo3/wyniki_plecak.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Damian\Na Studia\Studia\SDiZO\Projekt\Projekt3\Plecak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Damian\Na Studia\Studia\SDiZO\Projekt\Projekt3\GIT\sdizo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="N=1000" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="N=10000" sheetId="3" r:id="rId3"/>
     <sheet name="N=20000" sheetId="4" r:id="rId4"/>
     <sheet name="N=50000" sheetId="5" r:id="rId5"/>
+    <sheet name="Arkusz1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>N=1000</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>N=13</t>
+  </si>
+  <si>
+    <t>N=5</t>
   </si>
 </sst>
 </file>
@@ -148,7 +155,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -865,11 +871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228813376"/>
-        <c:axId val="229688240"/>
+        <c:axId val="246840352"/>
+        <c:axId val="246840912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228813376"/>
+        <c:axId val="246840352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,12 +932,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229688240"/>
+        <c:crossAx val="246840912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229688240"/>
+        <c:axId val="246840912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +994,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228813376"/>
+        <c:crossAx val="246840352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,11 +1200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="313064144"/>
-        <c:axId val="313063584"/>
+        <c:axId val="246843152"/>
+        <c:axId val="246843712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="313064144"/>
+        <c:axId val="246843152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1308,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313063584"/>
+        <c:crossAx val="246843712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313063584"/>
+        <c:axId val="246843712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1423,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313064144"/>
+        <c:crossAx val="246843152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,11 +1661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="322817168"/>
-        <c:axId val="322817728"/>
+        <c:axId val="246845952"/>
+        <c:axId val="246846512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322817168"/>
+        <c:axId val="246845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1769,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322817728"/>
+        <c:crossAx val="246846512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1771,7 +1777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322817728"/>
+        <c:axId val="246846512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1884,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322817168"/>
+        <c:crossAx val="246845952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,11 +2122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="318499392"/>
-        <c:axId val="322863520"/>
+        <c:axId val="250431024"/>
+        <c:axId val="250431584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="318499392"/>
+        <c:axId val="250431024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2230,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322863520"/>
+        <c:crossAx val="250431584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322863520"/>
+        <c:axId val="250431584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2345,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318499392"/>
+        <c:crossAx val="250431024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,11 +2895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228061104"/>
-        <c:axId val="228061664"/>
+        <c:axId val="250436064"/>
+        <c:axId val="250436624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228061104"/>
+        <c:axId val="250436064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,12 +3017,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228061664"/>
+        <c:crossAx val="250436624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228061664"/>
+        <c:axId val="250436624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +3135,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228061104"/>
+        <c:crossAx val="250436064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6414,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:L5"/>
     </sheetView>
   </sheetViews>
@@ -9350,4 +9356,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6.8557599999999996E-2</v>
+      </c>
+      <c r="D3">
+        <v>1757.2175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sdizo3/wyniki_plecak.xlsx
+++ b/sdizo3/wyniki_plecak.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>N=1000</t>
   </si>
@@ -64,10 +64,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>N=13</t>
+    <t>14 min</t>
   </si>
   <si>
-    <t>N=5</t>
+    <t>3min</t>
+  </si>
+  <si>
+    <t>~1min</t>
   </si>
 </sst>
 </file>
@@ -3216,6 +3219,466 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Brute Force dla B=5000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.8557599999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7886599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.898299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412.12900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1757.2175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39877.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="307716176"/>
+        <c:axId val="307715616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="307716176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba przedmiotów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307715616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="307715616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307716176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3416,6 +3879,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5481,6 +5984,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6155,6 +7174,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -9360,42 +10414,90 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.8557599999999996E-2</v>
       </c>
+      <c r="B3">
+        <v>1.7886599999999999</v>
+      </c>
+      <c r="C3">
+        <v>34.898299999999999</v>
+      </c>
       <c r="D3">
+        <v>412.12900000000002</v>
+      </c>
+      <c r="E3">
         <v>1757.2175</v>
+      </c>
+      <c r="F3">
+        <v>39877.9</v>
+      </c>
+      <c r="G3">
+        <v>187908</v>
+      </c>
+      <c r="H3">
+        <v>858055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>